--- a/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -775,11 +775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299745744"/>
-        <c:axId val="299747704"/>
+        <c:axId val="255136240"/>
+        <c:axId val="255137024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299745744"/>
+        <c:axId val="255136240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -903,13 +903,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299747704"/>
+        <c:crossAx val="255137024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299747704"/>
+        <c:axId val="255137024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1022,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299745744"/>
+        <c:crossAx val="255136240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -2016,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
   </si>
   <si>
     <t>standard deviation (Meters)</t>
-  </si>
-  <si>
-    <t>Lösung 0</t>
   </si>
   <si>
     <t>Max error</t>
@@ -49,13 +46,16 @@
     <t>Konstant</t>
   </si>
   <si>
-    <t>Lösung 1</t>
-  </si>
-  <si>
     <t>Max Error(Meters)</t>
   </si>
   <si>
     <t>Median Kodierung</t>
+  </si>
+  <si>
+    <t>Lösung DCT</t>
+  </si>
+  <si>
+    <t>A. Subsampling</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lösung 0</c:v>
+                  <c:v>A. Subsampling</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -206,7 +206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lösung 1</c:v>
+                  <c:v>Lösung DCT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -775,11 +775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255136240"/>
-        <c:axId val="255137024"/>
+        <c:axId val="260296232"/>
+        <c:axId val="260288784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="255136240"/>
+        <c:axId val="260296232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -903,13 +903,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255137024"/>
+        <c:crossAx val="260288784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255137024"/>
+        <c:axId val="260288784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1022,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255136240"/>
+        <c:crossAx val="260296232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -2016,60 +2016,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
       </c>
       <c r="Q1" t="s">
         <v>1</v>
       </c>
       <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>89.901083333333304</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>74.187416666666707</v>
       </c>
       <c r="AB3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD3">
         <v>5802769.2857510503</v>
@@ -2187,7 +2187,7 @@
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O4">
         <v>72.888333333333307</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O5">
         <v>68.001249999999999</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>97.511161382641305</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O6">
         <v>64.334083333333297</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>94.762321073135794</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O7">
         <v>61.263166666666699</v>
       </c>

--- a/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median.xlsx
@@ -775,13 +775,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="260296232"/>
-        <c:axId val="260288784"/>
+        <c:axId val="276894416"/>
+        <c:axId val="276894808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="260296232"/>
+        <c:axId val="276894416"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
         </c:scaling>
@@ -903,13 +903,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260288784"/>
+        <c:crossAx val="276894808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260288784"/>
+        <c:axId val="276894808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1021,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260296232"/>
+        <c:crossAx val="276894416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -2016,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -49,13 +49,13 @@
     <t>Max Error(Meters)</t>
   </si>
   <si>
-    <t>Median Kodierung</t>
-  </si>
-  <si>
     <t>Lösung DCT</t>
   </si>
   <si>
     <t>A. Subsampling</t>
+  </si>
+  <si>
+    <t>Rekursive Lineare Kodierung</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Median Kodierung</c:v>
+                  <c:v>Rekursive Lineare Kodierung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -775,11 +775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="276894416"/>
-        <c:axId val="276894808"/>
+        <c:axId val="241759312"/>
+        <c:axId val="241760880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="276894416"/>
+        <c:axId val="241759312"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -903,12 +903,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276894808"/>
+        <c:crossAx val="241760880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="276894808"/>
+        <c:axId val="241760880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1021,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276894416"/>
+        <c:crossAx val="241759312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1696,13 +1696,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>160564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
+      <xdr:colOff>578031</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
@@ -2015,22 +2015,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2047,10 +2047,10 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
@@ -2062,13 +2062,13 @@
         <v>3</v>
       </c>
       <c r="AB1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>89.901083333333304</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O4">
         <v>72.888333333333307</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O5">
         <v>68.001249999999999</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>97.511161382641305</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O6">
         <v>64.334083333333297</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>94.762321073135794</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O7">
         <v>61.263166666666699</v>
       </c>

--- a/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -269,78 +269,8 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$AD$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ist-Zustand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$AE$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>858.70933333333301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$AD$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5802769.2857510503</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$A$1</c:f>
@@ -404,7 +334,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$C$1</c:f>
@@ -468,7 +398,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$E$1</c:f>
@@ -532,7 +462,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$G$1</c:f>
@@ -599,7 +529,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$I$1</c:f>
@@ -669,7 +599,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$O$1</c:f>
@@ -775,14 +705,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241759312"/>
-        <c:axId val="241760880"/>
+        <c:axId val="253379464"/>
+        <c:axId val="254187104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241759312"/>
+        <c:axId val="253379464"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
           <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -810,10 +741,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -821,16 +749,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Median </a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bytes pro Feldlinie</a:t>
                 </a:r>
               </a:p>
@@ -852,10 +792,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -890,10 +827,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -903,12 +837,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241760880"/>
+        <c:crossAx val="254187104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241760880"/>
+        <c:axId val="254187104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,10 +871,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -948,8 +879,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
-                  <a:t>Standardabweichung (Meter)</a:t>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Standardabweichung (KM)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -970,10 +905,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1008,10 +940,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1021,41 +950,11 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241759312"/>
+        <c:crossAx val="253379464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
       <c:spPr>
@@ -1084,10 +983,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2015,22 +1911,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2068,7 +1964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>89.901083333333304</v>
       </c>
@@ -2186,7 +2082,7 @@
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O4">
         <v>72.888333333333307</v>
       </c>
@@ -2209,7 +2105,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O5">
         <v>68.001249999999999</v>
       </c>
@@ -2223,7 +2119,7 @@
         <v>97.511161382641305</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O6">
         <v>64.334083333333297</v>
       </c>
@@ -2237,7 +2133,7 @@
         <v>94.762321073135794</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O7">
         <v>61.263166666666699</v>
       </c>

--- a/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median.xlsx
@@ -705,16 +705,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="253379464"/>
-        <c:axId val="254187104"/>
+        <c:axId val="260061208"/>
+        <c:axId val="260061992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="253379464"/>
+        <c:axId val="260061208"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="250"/>
-          <c:min val="50"/>
+          <c:max val="256"/>
+          <c:min val="32"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -837,12 +837,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254187104"/>
+        <c:crossAx val="260061992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254187104"/>
+        <c:axId val="260061992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +950,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253379464"/>
+        <c:crossAx val="260061208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1026,7 +1026,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
